--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_228.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_228.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,642 +488,644 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>schubert-winterreise_200</t>
         </is>
       </c>
-      <c r="C2" t="n">
-        <v>0.6708333333333334</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
-        </is>
+      <c r="D2" t="n">
+        <v>0.298780487804878</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>[['C:7', 'F', 'F', 'C:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(118.78, 122.74)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(24.28, 51.08)]</t>
+          <t>[('0:00:49.610000', '0:00:56.990000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:03:46.020000', '0:03:56.720000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2044025157232704</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D/5', 'A', 'D/5', 'D']]</t>
-        </is>
+          <t>isophonics_30</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_235</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1637426900584795</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj', 'D:maj']]</t>
+          <t>[['A', 'D', 'E', 'A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(34.743424, 38.330907)]</t>
+          <t>[['Bb', 'Eb', 'F', 'Bb']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(43.971, 63.135)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:00.420489', '0:00:05.694779')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:55.589104', '0:01:14.118628')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1004464285714286</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2461389961389961</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C/3', 'D', 'G']]</t>
+          <t>[['D', 'G/5', 'D', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(61.597865, 66.393832)]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb', 'Bb']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.877585, 24.470647)]</t>
+          <t>[('0:00:20.432000', '0:00:26.250000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
+          <t>[('0:01:00.761383', '0:01:12.162380')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_13</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
-        </is>
+          <t>isophonics_174</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_141</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.126984126984127</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D', 'A', 'D']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(0.32, 10.96)]</t>
+          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:06.536000', '0:00:09.774000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:00.780000', '0:00:24.860000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_81</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_56</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06076104746317512</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['F/5', 'D:7', 'G:min7']]</t>
-        </is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_83</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1535714285714286</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Ab', 'F:7', 'Bb:min7']]</t>
+          <t>[['B:7', 'B:min7/4', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(9.46, 12.13)]</t>
+          <t>[['A:7', 'A:min7', 'D:7', 'G']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(15.38, 17.02)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:46.509000', '0:00:50.945000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:31.930000', '0:00:36.590000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_183</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(21.94, 25.36), (11.82, 16.4)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(19.48, 25.86), (9.14, 16.92)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:59.220000', '0:01:06.880000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:02:08.540000', '0:02:12.840000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4875</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>[['G', 'C', 'G']]</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>[(57.48, 64.58)]</t>
-        </is>
-      </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(138.8, 144.46)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:06.415079', '0:00:14.054444')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:02:34.760000', '0:02:39.840000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3142857142857143</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_149</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6538461538461539</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['G', 'C', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(58.32, 59.68), (56.72, 58.88)]</t>
+          <t>[['B', 'E', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(41.7, 57.94), (123.22, 126.88)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:14.158934')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:19.602494', '0:00:27.450839')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.36, 127.8)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(1.54, 138.86)]</t>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3452380952380952</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5111111111111111</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(59.5, 68.12)]</t>
+          <t>[['C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(205.86, 217.18)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:18.020000', '0:02:23.320000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_155</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.08131868131868132</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>isophonics_162</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.375</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['D', 'A', 'A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(17.833, 21.409)]</t>
+          <t>[['F', 'C', 'C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:32.351768', '0:00:43.926916')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:01:00.276984', '0:01:27.246961')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:4MLBqAEzNN89o2M9h92Z26</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_3</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1285714285714286</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E', 'G#', 'C#:min']]</t>
-        </is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'B', 'E:min']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(58.063326, 63.24456)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(71.072653, 74.544036)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
-        </is>
-      </c>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(1.54, 10.14), (71.5, 78.96)]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.36, 8.66), (73.4, 81.18)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:01.440000', '0:01:04.220000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1136044880785414</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_120</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['A#:min', 'F:7/C', 'A#:min/C#', 'A#:maj/D', 'D#:min', 'C:hdim7', 'A#:min', 'B:maj', 'F#:maj/A#', 'F:7', 'F#:maj'], ['A#:7/G#', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min/F#', 'A#:maj/F', 'D#:min', 'A#:min/F']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.7, 3.78)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:02.600000', '0:00:10.700000'), ('0:01:12.880000', '0:01:20.600000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>jaah_12</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_31</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.05736451048951049</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:min7', 'G:min7', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_84</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_48</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:min7', 'D:min7', 'G:7']]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(21.53, 23.62)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(33.15, 36.8)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:40.100000', '0:01:24.580000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:36.640000', '0:01:18.160000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(154.76, 160.98)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(124.92, 129.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
